--- a/auxiliary/population-time-progression/src/main/resources/mortality_tables/RSFSR/1958-1959/Life tables RSFSR 1958-1959.xlsx
+++ b/auxiliary/population-time-progression/src/main/resources/mortality_tables/RSFSR/1958-1959/Life tables RSFSR 1958-1959.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\WINAPPS\SLOVO\UKR\github\RTSS\auxiliary\population-time-progression\src\main\resources\mortality_tables\RSFSR\1958-1959\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFB813D0-C6CA-4491-8B08-9B9916F3A504}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDF6DF1F-14C1-4265-A5A9-0FC14C158911}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20970" yWindow="1155" windowWidth="17310" windowHeight="20655" xr2:uid="{5A02783C-548D-4424-B62D-33C1A816D794}"/>
   </bookViews>
@@ -93,7 +93,7 @@
     <t>женщины</t>
   </si>
   <si>
-    <t>"Таблицы смертности и средней продолжительности жизни населения РСФСР 1958-1959 гг.", ЦСУ РСФСР, 1962</t>
+    <t>"Таблицы смертности и средней продолжительности жизни населения РСФСР 1958-1959 гг.", ЦСУ РСФСР, [1962]</t>
   </si>
 </sst>
 </file>
@@ -101,7 +101,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="0.00000"/>
+    <numFmt numFmtId="164" formatCode="0.00000"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -159,11 +159,11 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -484,9 +484,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D993FABE-6064-4130-B1E6-69D60B838EEC}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -8517,7 +8515,7 @@
     <col min="8" max="8" width="19.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="135" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -16511,7 +16509,7 @@
     <col min="8" max="8" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="135" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>

--- a/auxiliary/population-time-progression/src/main/resources/mortality_tables/RSFSR/1958-1959/Life tables RSFSR 1958-1959.xlsx
+++ b/auxiliary/population-time-progression/src/main/resources/mortality_tables/RSFSR/1958-1959/Life tables RSFSR 1958-1959.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\WINAPPS\SLOVO\UKR\github\RTSS\auxiliary\population-time-progression\src\main\resources\mortality_tables\RSFSR\1958-1959\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06E917EC-5AD8-4D87-BFB7-30A1B0F9E2C4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6DB9796-8665-4099-BED9-DC13723793C6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10260" yWindow="1365" windowWidth="22545" windowHeight="20655" activeTab="3" xr2:uid="{5A02783C-548D-4424-B62D-33C1A816D794}"/>
+    <workbookView xWindow="16455" yWindow="1470" windowWidth="22545" windowHeight="20655" activeTab="3" xr2:uid="{5A02783C-548D-4424-B62D-33C1A816D794}"/>
   </bookViews>
   <sheets>
     <sheet name="Source" sheetId="4" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="27">
   <si>
     <t>Числа доживающих до возраста х лет</t>
   </si>
@@ -104,6 +104,18 @@
   <si>
     <t>diff lx/dx/lx_next</t>
   </si>
+  <si>
+    <t>px/dx</t>
+  </si>
+  <si>
+    <t>diff</t>
+  </si>
+  <si>
+    <t>lx/dx/lx_next</t>
+  </si>
+  <si>
+    <t>lx/qx/dx</t>
+  </si>
 </sst>
 </file>
 
@@ -136,12 +148,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -156,7 +174,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -177,6 +195,9 @@
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -511,8 +532,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB8E1EA5-44CC-47E5-BF3A-648415915423}">
   <dimension ref="A1:N314"/>
   <sheetViews>
-    <sheetView topLeftCell="A260" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2:N314"/>
+    <sheetView topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="A67" sqref="A67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -583,13 +604,28 @@
         <v>9</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>20</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="K2" s="1"/>
       <c r="L2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="N2" t="s">
-        <v>22</v>
+        <v>24</v>
+      </c>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="J3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -974,15 +1010,15 @@
       </c>
       <c r="N15">
         <f t="shared" si="2"/>
-        <v>4000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>10</v>
       </c>
-      <c r="B16">
-        <v>90133</v>
+      <c r="B16" s="12">
+        <v>94133</v>
       </c>
       <c r="C16">
         <v>81</v>
@@ -1008,11 +1044,11 @@
       </c>
       <c r="L16" s="7">
         <f t="shared" si="1"/>
-        <v>-3.4856199999999973</v>
+        <v>-4.561999999999955E-2</v>
       </c>
       <c r="N16">
         <f t="shared" si="2"/>
-        <v>-4000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
@@ -2926,7 +2962,7 @@
         <v>1259</v>
       </c>
       <c r="D67" s="5">
-        <v>1.6369999999999999E-2</v>
+        <v>1.687E-2</v>
       </c>
       <c r="E67" s="5">
         <v>0.98312999999999995</v>
@@ -2942,11 +2978,11 @@
       </c>
       <c r="J67" s="6">
         <f t="shared" si="0"/>
-        <v>5.0000000000005596E-4</v>
+        <v>0</v>
       </c>
       <c r="L67" s="7">
         <f t="shared" si="1"/>
-        <v>-37.405120000000124</v>
+        <v>-9.3119999999998981E-2</v>
       </c>
       <c r="N67">
         <f t="shared" si="2"/>
@@ -4436,10 +4472,7 @@
       <c r="E107" s="5"/>
       <c r="H107" s="6"/>
       <c r="J107" s="6"/>
-      <c r="L107" s="7">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
+      <c r="L107" s="7"/>
     </row>
     <row r="108" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A108" s="4" t="s">
@@ -4449,20 +4482,14 @@
       <c r="E108" s="5"/>
       <c r="H108" s="6"/>
       <c r="J108" s="6"/>
-      <c r="L108" s="7">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
+      <c r="L108" s="7"/>
     </row>
     <row r="109" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D109" s="5"/>
       <c r="E109" s="5"/>
       <c r="H109" s="6"/>
       <c r="J109" s="6"/>
-      <c r="L109" s="7">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
+      <c r="L109" s="7"/>
     </row>
     <row r="110" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A110">
@@ -4592,7 +4619,7 @@
         <v>1.9499999999999999E-3</v>
       </c>
       <c r="E113" s="5">
-        <v>0.69804999999999995</v>
+        <v>0.99804999999999999</v>
       </c>
       <c r="F113">
         <v>94468</v>
@@ -4605,7 +4632,7 @@
       </c>
       <c r="J113" s="6">
         <f t="shared" si="3"/>
-        <v>0.30000000000000004</v>
+        <v>0</v>
       </c>
       <c r="L113" s="7">
         <f t="shared" si="4"/>
@@ -4778,8 +4805,8 @@
       <c r="C118">
         <v>115</v>
       </c>
-      <c r="D118" s="5">
-        <v>1.2200000000000001E-2</v>
+      <c r="D118" s="13">
+        <v>1.2199999999999999E-3</v>
       </c>
       <c r="E118" s="5">
         <v>0.99878</v>
@@ -4795,11 +4822,11 @@
       </c>
       <c r="J118" s="6">
         <f t="shared" si="3"/>
-        <v>-1.097999999999999E-2</v>
+        <v>0</v>
       </c>
       <c r="L118" s="7">
         <f t="shared" si="4"/>
-        <v>1030.1408000000001</v>
+        <v>-0.48592000000000724</v>
       </c>
       <c r="N118">
         <f t="shared" si="5"/>
@@ -5905,15 +5932,15 @@
       </c>
       <c r="N147">
         <f t="shared" si="8"/>
-        <v>50</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>38</v>
       </c>
-      <c r="B148">
-        <v>86836</v>
+      <c r="B148" s="12">
+        <v>86886</v>
       </c>
       <c r="C148">
         <v>483</v>
@@ -5939,11 +5966,11 @@
       </c>
       <c r="L148" s="7">
         <f t="shared" si="7"/>
-        <v>-0.19184000000001333</v>
+        <v>8.6160000000006676E-2</v>
       </c>
       <c r="N148">
         <f t="shared" si="8"/>
-        <v>-50</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:14" x14ac:dyDescent="0.25">
@@ -8672,7 +8699,7 @@
         <v>94762</v>
       </c>
       <c r="C223">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="D223" s="5">
         <v>6.9999999999999999E-4</v>
@@ -8695,11 +8722,11 @@
       </c>
       <c r="L223" s="7">
         <f t="shared" si="10"/>
-        <v>6.3333999999999975</v>
+        <v>0.33339999999999748</v>
       </c>
       <c r="N223">
         <f t="shared" si="11"/>
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="224" spans="1:14" x14ac:dyDescent="0.25">
@@ -10409,15 +10436,15 @@
       </c>
       <c r="N268">
         <f t="shared" si="14"/>
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="269" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A269">
         <v>55</v>
       </c>
-      <c r="B269">
-        <v>85391</v>
+      <c r="B269" s="12">
+        <v>85394</v>
       </c>
       <c r="C269">
         <v>601</v>
@@ -10443,11 +10470,11 @@
       </c>
       <c r="L269" s="7">
         <f t="shared" si="13"/>
-        <v>0.15264000000001943</v>
+        <v>0.17376000000001568</v>
       </c>
       <c r="N269">
         <f t="shared" si="14"/>
-        <v>-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="270" spans="1:14" x14ac:dyDescent="0.25">
@@ -11908,7 +11935,7 @@
         <v>0.19364999999999999</v>
       </c>
       <c r="E308" s="5">
-        <v>0.30635000000000001</v>
+        <v>0.80635000000000001</v>
       </c>
       <c r="F308">
         <v>5341</v>
@@ -11921,7 +11948,7 @@
       </c>
       <c r="J308" s="6">
         <f t="shared" si="12"/>
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="L308" s="7">
         <f t="shared" si="13"/>
@@ -12166,8 +12193,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C819246F-181B-4CAA-8E08-DAAB175D1FA7}">
   <dimension ref="A1:N314"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J2" sqref="J2:N314"/>
+    <sheetView topLeftCell="A107" workbookViewId="0">
+      <selection activeCell="D137" sqref="D137"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12180,6 +12207,9 @@
     <col min="6" max="6" width="10.28515625" customWidth="1"/>
     <col min="7" max="7" width="13.5703125" customWidth="1"/>
     <col min="8" max="8" width="19.5703125" customWidth="1"/>
+    <col min="11" max="11" width="5" customWidth="1"/>
+    <col min="13" max="13" width="4" customWidth="1"/>
+    <col min="14" max="14" width="11.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="75" x14ac:dyDescent="0.25">
@@ -12234,13 +12264,28 @@
         <v>9</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>20</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="K2" s="1"/>
       <c r="L2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="N2" t="s">
-        <v>22</v>
+        <v>24</v>
+      </c>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="J3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -12473,15 +12518,15 @@
       </c>
       <c r="N11">
         <f t="shared" si="2"/>
-        <v>60</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>6</v>
       </c>
-      <c r="B12">
-        <v>95136</v>
+      <c r="B12" s="12">
+        <v>95196</v>
       </c>
       <c r="C12">
         <v>93</v>
@@ -12507,11 +12552,11 @@
       </c>
       <c r="L12" s="7">
         <f t="shared" si="1"/>
-        <v>0.23327999999999349</v>
+        <v>0.29207999999999856</v>
       </c>
       <c r="N12">
         <f t="shared" si="2"/>
-        <v>-60</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
@@ -13930,8 +13975,8 @@
       <c r="C50">
         <v>436</v>
       </c>
-      <c r="D50" s="5">
-        <v>9.4939999999999997E-2</v>
+      <c r="D50" s="13">
+        <v>4.9399999999999999E-3</v>
       </c>
       <c r="E50" s="5">
         <v>0.99505999999999994</v>
@@ -13947,11 +13992,11 @@
       </c>
       <c r="J50" s="6">
         <f t="shared" si="0"/>
-        <v>-8.9999999999999969E-2</v>
+        <v>0</v>
       </c>
       <c r="L50" s="7">
         <f t="shared" si="1"/>
-        <v>7939.8916200000003</v>
+        <v>-0.1783800000000042</v>
       </c>
       <c r="N50">
         <f t="shared" si="2"/>
@@ -16087,10 +16132,7 @@
       <c r="E107" s="5"/>
       <c r="H107" s="6"/>
       <c r="J107" s="6"/>
-      <c r="L107" s="7">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
+      <c r="L107" s="7"/>
     </row>
     <row r="108" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A108" s="4" t="s">
@@ -16100,20 +16142,14 @@
       <c r="E108" s="5"/>
       <c r="H108" s="6"/>
       <c r="J108" s="6"/>
-      <c r="L108" s="7">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
+      <c r="L108" s="7"/>
     </row>
     <row r="109" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D109" s="5"/>
       <c r="E109" s="5"/>
       <c r="H109" s="6"/>
       <c r="J109" s="6"/>
-      <c r="L109" s="7">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
+      <c r="L109" s="7"/>
     </row>
     <row r="110" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A110">
@@ -21389,8 +21425,8 @@
       <c r="C251">
         <v>192</v>
       </c>
-      <c r="D251" s="5">
-        <v>5.0699999999999999E-3</v>
+      <c r="D251" s="13">
+        <v>2.0699999999999998E-3</v>
       </c>
       <c r="E251" s="5">
         <v>0.99792999999999998</v>
@@ -21406,11 +21442,11 @@
       </c>
       <c r="J251" s="6">
         <f t="shared" si="9"/>
-        <v>-3.0000000000000027E-3</v>
+        <v>0</v>
       </c>
       <c r="L251" s="7">
         <f t="shared" si="10"/>
-        <v>278.18673000000001</v>
+        <v>-3.0270000000029995E-2</v>
       </c>
       <c r="N251">
         <f t="shared" si="11"/>
@@ -23816,7 +23852,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F4E8CA7-7E75-4C97-96C8-0A917C66D047}">
   <dimension ref="A1:N314"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A255" workbookViewId="0">
+      <selection activeCell="D268" sqref="D268"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -23828,6 +23866,8 @@
     <col min="6" max="6" width="11.28515625" customWidth="1"/>
     <col min="7" max="7" width="14.42578125" customWidth="1"/>
     <col min="8" max="8" width="20" customWidth="1"/>
+    <col min="12" max="12" width="11.28515625" customWidth="1"/>
+    <col min="14" max="14" width="17.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="90" x14ac:dyDescent="0.25">
@@ -27735,10 +27775,7 @@
       <c r="E107" s="5"/>
       <c r="H107" s="6"/>
       <c r="J107" s="6"/>
-      <c r="L107" s="7">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
+      <c r="L107" s="7"/>
     </row>
     <row r="108" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A108" s="4" t="s">
@@ -27748,20 +27785,14 @@
       <c r="E108" s="5"/>
       <c r="H108" s="6"/>
       <c r="J108" s="6"/>
-      <c r="L108" s="7">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
+      <c r="L108" s="7"/>
     </row>
     <row r="109" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D109" s="5"/>
       <c r="E109" s="5"/>
       <c r="H109" s="6"/>
       <c r="J109" s="6"/>
-      <c r="L109" s="7">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
+      <c r="L109" s="7"/>
     </row>
     <row r="110" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A110">
@@ -27922,8 +27953,8 @@
       <c r="B114">
         <v>93932</v>
       </c>
-      <c r="C114">
-        <v>174</v>
+      <c r="C114" s="12">
+        <v>183</v>
       </c>
       <c r="D114" s="5">
         <v>1.9499999999999999E-3</v>
@@ -27946,11 +27977,11 @@
       </c>
       <c r="L114" s="7">
         <f t="shared" si="4"/>
-        <v>9.1673999999999864</v>
+        <v>0.16739999999998645</v>
       </c>
       <c r="N114">
         <f t="shared" si="5"/>
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:14" x14ac:dyDescent="0.25">
@@ -28765,7 +28796,7 @@
         <v>3.1800000000000001E-3</v>
       </c>
       <c r="E136" s="5">
-        <v>3.1800000000000001E-3</v>
+        <v>0.99682000000000004</v>
       </c>
       <c r="F136">
         <v>90199</v>
@@ -28778,7 +28809,7 @@
       </c>
       <c r="J136" s="6">
         <f t="shared" si="6"/>
-        <v>0.99364000000000008</v>
+        <v>0</v>
       </c>
       <c r="L136" s="7">
         <f t="shared" si="7"/>
@@ -28803,7 +28834,7 @@
         <v>3.31E-3</v>
       </c>
       <c r="E137" s="5">
-        <v>3.31E-3</v>
+        <v>0.99668999999999996</v>
       </c>
       <c r="F137">
         <v>89906</v>
@@ -28816,7 +28847,7 @@
       </c>
       <c r="J137" s="6">
         <f t="shared" si="6"/>
-        <v>0.99337999999999993</v>
+        <v>0</v>
       </c>
       <c r="L137" s="7">
         <f t="shared" si="7"/>
@@ -28841,7 +28872,7 @@
         <v>3.4399999999999999E-3</v>
       </c>
       <c r="E138" s="5">
-        <v>3.4399999999999999E-3</v>
+        <v>0.99656</v>
       </c>
       <c r="F138">
         <v>89603</v>
@@ -28854,7 +28885,7 @@
       </c>
       <c r="J138" s="6">
         <f t="shared" si="6"/>
-        <v>0.99312</v>
+        <v>0</v>
       </c>
       <c r="L138" s="7">
         <f t="shared" si="7"/>
@@ -28879,7 +28910,7 @@
         <v>3.5899999999999999E-3</v>
       </c>
       <c r="E139" s="5">
-        <v>3.5899999999999999E-3</v>
+        <v>0.99641000000000002</v>
       </c>
       <c r="F139">
         <v>89288</v>
@@ -28892,7 +28923,7 @@
       </c>
       <c r="J139" s="6">
         <f t="shared" si="6"/>
-        <v>0.99282000000000004</v>
+        <v>0</v>
       </c>
       <c r="L139" s="7">
         <f t="shared" si="7"/>
@@ -28917,7 +28948,7 @@
         <v>3.7499999999999999E-3</v>
       </c>
       <c r="E140" s="5">
-        <v>3.7499999999999999E-3</v>
+        <v>0.99624999999999997</v>
       </c>
       <c r="F140">
         <v>88960</v>
@@ -28930,7 +28961,7 @@
       </c>
       <c r="J140" s="6">
         <f t="shared" si="6"/>
-        <v>0.99249999999999994</v>
+        <v>0</v>
       </c>
       <c r="L140" s="7">
         <f t="shared" si="7"/>
@@ -28955,7 +28986,7 @@
         <v>3.9300000000000003E-3</v>
       </c>
       <c r="E141" s="5">
-        <v>3.9300000000000003E-3</v>
+        <v>0.99607000000000001</v>
       </c>
       <c r="F141">
         <v>88619</v>
@@ -28968,7 +28999,7 @@
       </c>
       <c r="J141" s="6">
         <f t="shared" si="6"/>
-        <v>0.99214000000000002</v>
+        <v>0</v>
       </c>
       <c r="L141" s="7">
         <f t="shared" si="7"/>
@@ -28993,7 +29024,7 @@
         <v>4.0699999999999998E-3</v>
       </c>
       <c r="E142" s="5">
-        <v>4.0699999999999998E-3</v>
+        <v>0.99592999999999998</v>
       </c>
       <c r="F142">
         <v>88264</v>
@@ -29006,7 +29037,7 @@
       </c>
       <c r="J142" s="6">
         <f t="shared" si="6"/>
-        <v>0.99185999999999996</v>
+        <v>0</v>
       </c>
       <c r="L142" s="7">
         <f t="shared" si="7"/>
@@ -29031,7 +29062,7 @@
         <v>4.1599999999999996E-3</v>
       </c>
       <c r="E143" s="5">
-        <v>4.1599999999999996E-3</v>
+        <v>0.99583999999999995</v>
       </c>
       <c r="F143">
         <v>87901</v>
@@ -29044,7 +29075,7 @@
       </c>
       <c r="J143" s="6">
         <f t="shared" si="6"/>
-        <v>0.99167999999999989</v>
+        <v>0</v>
       </c>
       <c r="L143" s="7">
         <f t="shared" si="7"/>
@@ -29069,7 +29100,7 @@
         <v>4.3400000000000001E-3</v>
       </c>
       <c r="E144" s="5">
-        <v>4.3400000000000001E-3</v>
+        <v>0.99565999999999999</v>
       </c>
       <c r="F144">
         <v>87528</v>
@@ -29082,7 +29113,7 @@
       </c>
       <c r="J144" s="6">
         <f t="shared" si="6"/>
-        <v>0.99131999999999998</v>
+        <v>0</v>
       </c>
       <c r="L144" s="7">
         <f t="shared" si="7"/>
@@ -29107,7 +29138,7 @@
         <v>4.7600000000000003E-3</v>
       </c>
       <c r="E145" s="5">
-        <v>4.7600000000000003E-3</v>
+        <v>0.99524000000000001</v>
       </c>
       <c r="F145">
         <v>87131</v>
@@ -29120,7 +29151,7 @@
       </c>
       <c r="J145" s="6">
         <f t="shared" si="6"/>
-        <v>0.99048000000000003</v>
+        <v>0</v>
       </c>
       <c r="L145" s="7">
         <f t="shared" si="7"/>
@@ -29145,7 +29176,7 @@
         <v>5.1799999999999997E-3</v>
       </c>
       <c r="E146" s="5">
-        <v>5.1799999999999997E-3</v>
+        <v>0.99482000000000004</v>
       </c>
       <c r="F146">
         <v>86698</v>
@@ -29158,7 +29189,7 @@
       </c>
       <c r="J146" s="6">
         <f t="shared" si="6"/>
-        <v>0.98964000000000008</v>
+        <v>0</v>
       </c>
       <c r="L146" s="7">
         <f t="shared" si="7"/>
@@ -29183,7 +29214,7 @@
         <v>5.5399999999999998E-3</v>
       </c>
       <c r="E147" s="5">
-        <v>5.5399999999999998E-3</v>
+        <v>0.99446000000000001</v>
       </c>
       <c r="F147">
         <v>86233</v>
@@ -29196,7 +29227,7 @@
       </c>
       <c r="J147" s="6">
         <f t="shared" si="6"/>
-        <v>0.98892000000000002</v>
+        <v>0</v>
       </c>
       <c r="L147" s="7">
         <f t="shared" si="7"/>
@@ -29221,7 +29252,7 @@
         <v>5.8300000000000001E-3</v>
       </c>
       <c r="E148" s="5">
-        <v>5.8300000000000001E-3</v>
+        <v>0.99417</v>
       </c>
       <c r="F148">
         <v>85743</v>
@@ -29234,7 +29265,7 @@
       </c>
       <c r="J148" s="6">
         <f t="shared" si="6"/>
-        <v>0.98834</v>
+        <v>0</v>
       </c>
       <c r="L148" s="7">
         <f t="shared" si="7"/>
@@ -29259,7 +29290,7 @@
         <v>6.0499999999999998E-3</v>
       </c>
       <c r="E149" s="5">
-        <v>6.0499999999999998E-3</v>
+        <v>0.99395</v>
       </c>
       <c r="F149">
         <v>85233</v>
@@ -29272,7 +29303,7 @@
       </c>
       <c r="J149" s="6">
         <f t="shared" si="6"/>
-        <v>0.9879</v>
+        <v>0</v>
       </c>
       <c r="L149" s="7">
         <f t="shared" si="7"/>
@@ -29297,7 +29328,7 @@
         <v>6.1999999999999998E-3</v>
       </c>
       <c r="E150" s="5">
-        <v>6.1999999999999998E-3</v>
+        <v>0.99380000000000002</v>
       </c>
       <c r="F150">
         <v>84711</v>
@@ -29310,7 +29341,7 @@
       </c>
       <c r="J150" s="6">
         <f t="shared" si="6"/>
-        <v>0.98760000000000003</v>
+        <v>0</v>
       </c>
       <c r="L150" s="7">
         <f t="shared" si="7"/>
@@ -29335,7 +29366,7 @@
         <v>6.4900000000000001E-3</v>
       </c>
       <c r="E151" s="5">
-        <v>6.4900000000000001E-3</v>
+        <v>0.99351</v>
       </c>
       <c r="F151">
         <v>84174</v>
@@ -29348,7 +29379,7 @@
       </c>
       <c r="J151" s="6">
         <f t="shared" si="6"/>
-        <v>0.98702000000000001</v>
+        <v>0</v>
       </c>
       <c r="L151" s="7">
         <f t="shared" si="7"/>
@@ -29373,7 +29404,7 @@
         <v>6.8700000000000002E-3</v>
       </c>
       <c r="E152" s="5">
-        <v>6.8700000000000002E-3</v>
+        <v>0.99312999999999996</v>
       </c>
       <c r="F152">
         <v>83613</v>
@@ -29386,7 +29417,7 @@
       </c>
       <c r="J152" s="6">
         <f t="shared" si="6"/>
-        <v>0.98625999999999991</v>
+        <v>0</v>
       </c>
       <c r="L152" s="7">
         <f t="shared" si="7"/>
@@ -29411,7 +29442,7 @@
         <v>7.45E-3</v>
       </c>
       <c r="E153" s="5">
-        <v>7.45E-3</v>
+        <v>0.99255000000000004</v>
       </c>
       <c r="F153">
         <v>83015</v>
@@ -29424,7 +29455,7 @@
       </c>
       <c r="J153" s="6">
         <f t="shared" si="6"/>
-        <v>0.98510000000000009</v>
+        <v>0</v>
       </c>
       <c r="L153" s="7">
         <f t="shared" si="7"/>
@@ -29449,7 +29480,7 @@
         <v>7.9100000000000004E-3</v>
       </c>
       <c r="E154" s="5">
-        <v>7.9100000000000004E-3</v>
+        <v>0.99209000000000003</v>
       </c>
       <c r="F154">
         <v>82376</v>
@@ -29462,7 +29493,7 @@
       </c>
       <c r="J154" s="6">
         <f t="shared" si="6"/>
-        <v>0.98418000000000005</v>
+        <v>0</v>
       </c>
       <c r="L154" s="7">
         <f t="shared" si="7"/>
@@ -29487,7 +29518,7 @@
         <v>8.3099999999999997E-3</v>
       </c>
       <c r="E155" s="5">
-        <v>8.3099999999999997E-3</v>
+        <v>0.99168999999999996</v>
       </c>
       <c r="F155">
         <v>81708</v>
@@ -29500,7 +29531,7 @@
       </c>
       <c r="J155" s="6">
         <f t="shared" si="6"/>
-        <v>0.98337999999999992</v>
+        <v>0</v>
       </c>
       <c r="L155" s="7">
         <f t="shared" si="7"/>
@@ -29525,7 +29556,7 @@
         <v>8.6599999999999993E-3</v>
       </c>
       <c r="E156" s="5">
-        <v>8.6599999999999993E-3</v>
+        <v>0.99134</v>
       </c>
       <c r="F156">
         <v>81014</v>
@@ -29538,7 +29569,7 @@
       </c>
       <c r="J156" s="6">
         <f t="shared" si="6"/>
-        <v>0.98268</v>
+        <v>0</v>
       </c>
       <c r="L156" s="7">
         <f t="shared" si="7"/>
@@ -29563,7 +29594,7 @@
         <v>9.1800000000000007E-3</v>
       </c>
       <c r="E157" s="5">
-        <v>9.1800000000000007E-3</v>
+        <v>0.99082000000000003</v>
       </c>
       <c r="F157">
         <v>80293</v>
@@ -29576,7 +29607,7 @@
       </c>
       <c r="J157" s="6">
         <f t="shared" si="6"/>
-        <v>0.98164000000000007</v>
+        <v>0</v>
       </c>
       <c r="L157" s="7">
         <f t="shared" si="7"/>
@@ -29601,7 +29632,7 @@
         <v>9.8300000000000002E-3</v>
       </c>
       <c r="E158" s="5">
-        <v>9.8300000000000002E-3</v>
+        <v>0.99016999999999999</v>
       </c>
       <c r="F158">
         <v>79531</v>
@@ -29614,7 +29645,7 @@
       </c>
       <c r="J158" s="6">
         <f t="shared" si="6"/>
-        <v>0.98033999999999999</v>
+        <v>0</v>
       </c>
       <c r="L158" s="7">
         <f t="shared" si="7"/>
@@ -29639,7 +29670,7 @@
         <v>1.0529999999999999E-2</v>
       </c>
       <c r="E159" s="5">
-        <v>1.0529999999999999E-2</v>
+        <v>0.98946999999999996</v>
       </c>
       <c r="F159">
         <v>78721</v>
@@ -29652,7 +29683,7 @@
       </c>
       <c r="J159" s="6">
         <f t="shared" si="6"/>
-        <v>0.97893999999999992</v>
+        <v>0</v>
       </c>
       <c r="L159" s="7">
         <f t="shared" si="7"/>
@@ -29677,7 +29708,7 @@
         <v>1.128E-2</v>
       </c>
       <c r="E160" s="5">
-        <v>1.128E-2</v>
+        <v>0.98872000000000004</v>
       </c>
       <c r="F160">
         <v>77863</v>
@@ -29690,7 +29721,7 @@
       </c>
       <c r="J160" s="6">
         <f t="shared" si="6"/>
-        <v>0.97744000000000009</v>
+        <v>0</v>
       </c>
       <c r="L160" s="7">
         <f t="shared" si="7"/>
@@ -33646,7 +33677,7 @@
         <v>485</v>
       </c>
       <c r="D267" s="9">
-        <v>5.6299999999999996E-3</v>
+        <v>5.6800000000000002E-3</v>
       </c>
       <c r="E267" s="9">
         <v>0.99431999999999998</v>
@@ -33662,11 +33693,11 @@
       </c>
       <c r="J267" s="6">
         <f t="shared" si="12"/>
-        <v>4.9999999999994493E-5</v>
+        <v>0</v>
       </c>
       <c r="L267" s="7">
         <f t="shared" si="13"/>
-        <v>-4.5245400000000586</v>
+        <v>-0.25743999999997413</v>
       </c>
       <c r="N267">
         <f t="shared" si="14"/>
@@ -34278,15 +34309,15 @@
       </c>
       <c r="N283">
         <f t="shared" si="14"/>
-        <v>5000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="284" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A284" s="8">
         <v>70</v>
       </c>
-      <c r="B284" s="8">
-        <v>63946</v>
+      <c r="B284" s="14">
+        <v>68946</v>
       </c>
       <c r="C284" s="8">
         <v>1878</v>
@@ -34312,11 +34343,11 @@
       </c>
       <c r="L284" s="7">
         <f t="shared" si="13"/>
-        <v>-136.11095999999998</v>
+        <v>8.9040000000068176E-2</v>
       </c>
       <c r="N284">
         <f t="shared" si="14"/>
-        <v>-5000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="285" spans="1:14" x14ac:dyDescent="0.25">
